--- a/Data/Processed/Angiosperms/missing_powo_ipni/Apiaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Apiaceae.xlsx
@@ -1037,7 +1037,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -3820,7 +3820,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -5723,7 +5723,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Doctrine Ecole Rio de Janeiro Pathog. Brésil. 361. 1849 </t>
+          <t>Doctrine Ecole Rio de Janeiro Pathog. Brésil. 361. 1849</t>
         </is>
       </c>
       <c r="J96" t="b">
@@ -5801,7 +5801,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brittonia 2: 219. 1936 </t>
+          <t>Brittonia 2: 219. 1936</t>
         </is>
       </c>
       <c r="J97" t="b">
